--- a/programs/jeq_data_forwarding.xlsx
+++ b/programs/jeq_data_forwarding.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vacla\Projects\central-processing-unit\programs\pipelining\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vacla\Projects\cpu\programs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2540C9CE-868B-4BBD-8B13-DCB64B6D96F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6060D0FA-EAC4-48E2-96CF-425E0A594918}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="1" xr2:uid="{E410B2C1-F054-41C4-A96D-F1120FBD95E0}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{E410B2C1-F054-41C4-A96D-F1120FBD95E0}"/>
   </bookViews>
   <sheets>
     <sheet name="Code" sheetId="1" r:id="rId1"/>
@@ -605,12 +605,12 @@
       <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="22.7890625" customWidth="1"/>
+    <col min="2" max="2" width="22.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C1">
         <v>15</v>
       </c>
@@ -660,7 +660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -695,7 +695,7 @@
       <c r="Q2" s="6"/>
       <c r="R2" s="6"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>8</v>
       </c>
@@ -732,7 +732,7 @@
       </c>
       <c r="R3" s="6"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>13</v>
       </c>
@@ -775,7 +775,7 @@
       </c>
       <c r="R4" s="6"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>19</v>
       </c>
@@ -802,7 +802,7 @@
       <c r="Q5" s="6"/>
       <c r="R5" s="6"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>27</v>
       </c>
@@ -833,7 +833,7 @@
       </c>
       <c r="R6" s="6"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C7" s="3"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -854,7 +854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -914,7 +914,7 @@
         <v>C201</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -974,7 +974,7 @@
         <v>C601</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -1034,7 +1034,7 @@
         <v>9001</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -1094,7 +1094,7 @@
         <v>6006</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -1154,7 +1154,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>40</v>
       </c>
@@ -1214,7 +1214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>41</v>
       </c>
@@ -1274,7 +1274,7 @@
         <v>C201</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>50</v>
       </c>
@@ -1334,7 +1334,7 @@
         <v>CA01</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>51</v>
       </c>
@@ -1394,7 +1394,7 @@
         <v>CE01</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>52</v>
       </c>
@@ -1454,55 +1454,45 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="S18" s="2"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="S19" s="2"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="S20" s="2"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="S21" s="2"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="S22" s="2"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="S23" s="2"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C24" s="4"/>
       <c r="S24" s="2"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="S25" s="2"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="S26" s="2"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="S27" s="2"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="S28" s="2"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="S29" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="M4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="I5:R5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="K6:P6"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="K2:M2"/>
@@ -1512,6 +1502,16 @@
     <mergeCell ref="K3:N3"/>
     <mergeCell ref="O3:P3"/>
     <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="K6:P6"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="M4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="I5:R5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1523,17 +1523,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8303367F-86F1-47C6-AF22-70C59577B968}">
   <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="7.20703125" customWidth="1"/>
-    <col min="3" max="3" width="19.1015625" customWidth="1"/>
+    <col min="2" max="2" width="7.21875" customWidth="1"/>
+    <col min="3" max="3" width="19.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D1">
         <v>0</v>
       </c>
@@ -1565,7 +1565,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -1587,7 +1587,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -1609,7 +1609,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -1631,7 +1631,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -1653,7 +1653,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>32</v>
       </c>
@@ -1666,7 +1666,7 @@
         <v>STP</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>40</v>
       </c>
@@ -1679,7 +1679,7 @@
         <v>empty</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>41</v>
       </c>
@@ -1701,7 +1701,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>50</v>
       </c>
@@ -1723,7 +1723,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>51</v>
       </c>
@@ -1745,7 +1745,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>52</v>
       </c>
@@ -1767,7 +1767,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C13" s="6" t="s">
         <v>43</v>
       </c>
@@ -1783,7 +1783,7 @@
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D14">
         <v>0</v>
       </c>
@@ -1815,7 +1815,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>44</v>
       </c>
@@ -1851,7 +1851,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>48</v>
       </c>
@@ -1887,7 +1887,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>49</v>
       </c>
@@ -1922,7 +1922,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>53</v>
       </c>
@@ -1957,7 +1957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>54</v>
       </c>
